--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2804140.222126908</v>
+        <v>2792781.86126157</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11588964.16742757</v>
+        <v>11584606.04512843</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118822.830135301</v>
+        <v>2120974.001634924</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8117638.874510964</v>
+        <v>8120034.199316225</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>101.6194016989834</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>196.2131263403191</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800358</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1584,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1593,7 +1593,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1612,19 +1612,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>180.3615956913139</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>188.9420073839235</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124607</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1824,7 +1824,7 @@
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052362</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
         <v>239.5478617179984</v>
@@ -1852,7 +1852,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
@@ -1861,7 +1861,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>241.6510731180171</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5496970567777</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2070,7 +2070,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335026</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>257.5455044131062</v>
       </c>
       <c r="H20" t="n">
-        <v>190.9514458416384</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2140,13 +2140,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797744</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572797</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2295,7 +2295,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2323,7 +2323,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
@@ -2332,10 +2332,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>286.6136354998749</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2377,13 +2377,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>180.8166884192792</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2532,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905544</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>122.88000877129</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>313.1061118477568</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993356</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>365.2991159687853</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805273</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143943</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
-        <v>162.341040366694</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>286.1753286972087</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>328.1541709055429</v>
+        <v>238.8274536812084</v>
       </c>
       <c r="Y26" t="n">
-        <v>344.6610088831274</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2550504090111</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257017</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452862</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>104.857032873643</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500051</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G28" t="n">
-        <v>124.448878486102</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413946</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691193</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1920955585157</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>177.972019503243</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326867</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V28" t="n">
-        <v>210.5607135509018</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>163.6037216946232</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>184.132725616111</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791686</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>186.2043748693972</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>313.1061118477569</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>365.2991159687854</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>369.3447958805274</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.61083201524987</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>286.1753286972089</v>
+        <v>179.4384479484328</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>328.154170905543</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1780851413948</v>
+        <v>97.7798782957292</v>
       </c>
       <c r="I31" t="n">
-        <v>54.77549063691213</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.35522289712137</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S31" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>206.3120222708359</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>244.946068563665</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>129.2530071751304</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988204</v>
@@ -3097,7 +3097,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>228.4035085082438</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797654</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433998</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124548</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>105.523332092619</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
         <v>307.7079050020903</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>46.08353999181203</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3432,19 +3432,19 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797654</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433862</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572932</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124548</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>41.95701605145473</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3508,7 +3508,7 @@
         <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49368984148698</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>234.0716522785256</v>
       </c>
       <c r="X38" t="n">
         <v>322.7559640598764</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3669,19 +3669,19 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797654</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433862</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404367</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124549</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>41.95701605145473</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128487</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>171.240240528792</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>376.5321632265953</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>401.477838896045</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>405.523518807787</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>289.209557541654</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.7895549425094</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>198.5197632939537</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>245.5969651132355</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>322.3540516244685</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8427618717466</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>158.816860996834</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.8397318103871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.4337733362709</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>161.8486142529614</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>37.89299567880575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0357558009027</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>140.0228411772648</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.53394582438089</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.3708184857755</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7394364781616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>281.1247914909246</v>
+        <v>8.88383884732613</v>
       </c>
       <c r="X43" t="n">
-        <v>220.3114485433707</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1864465064284</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>377.3356348178139</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>359.8746849253409</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>124.9963678339961</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>401.4778388960448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>405.5235188077868</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>249.6893023886253</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>36.17872292725932</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.7895549425092</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>245.5969651132353</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>322.3540516244682</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>343.8427618717463</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>380.8397318103869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.0357558009025</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>19.23385065485716</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>83.53394582438069</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>184.3708184857753</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>214.1507424305026</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>280.8136313599462</v>
+        <v>193.7227085619084</v>
       </c>
       <c r="V46" t="n">
-        <v>246.7394364781614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>281.1247914909243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>220.3114485433705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.1864465064282</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1507.448363242303</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C11" t="n">
-        <v>1185.935479249965</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>875.1194135912879</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>536.7807939411171</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F11" t="n">
-        <v>536.7807939411171</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G11" t="n">
-        <v>169.1579767341869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,7 +5041,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5071,22 +5071,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3104.236671416635</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2820.623417021137</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2515.304394699097</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2189.28826938609</v>
+        <v>2111.028473809572</v>
       </c>
       <c r="Y11" t="n">
-        <v>1846.598570358352</v>
+        <v>1768.338774781834</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5108,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5202,7 +5202,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337115</v>
@@ -5214,10 +5214,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1316.597850733289</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>995.0849667409504</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D14" t="n">
-        <v>684.2689010822733</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E14" t="n">
-        <v>684.2689010822733</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5296,7 +5296,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5311,19 +5311,19 @@
         <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2913.38615890762</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2629.772904512123</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2324.453882190082</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>1998.437756877076</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1655.748057849337</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.408918177042</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998342</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657653</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5439,10 +5439,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5475,13 +5475,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.134122574823</v>
+        <v>2012.430767830337</v>
       </c>
       <c r="C17" t="n">
-        <v>1358.621238582484</v>
+        <v>1690.917883837998</v>
       </c>
       <c r="D17" t="n">
-        <v>1047.805172923807</v>
+        <v>1380.101818179321</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>1041.76319852915</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>678.2269266876158</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>310.6041094806856</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5515,22 +5515,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243047</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2345.300455003878</v>
+        <v>3020.28679928713</v>
       </c>
       <c r="X17" t="n">
-        <v>2019.284329690871</v>
+        <v>2694.270673974123</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.284329690871</v>
+        <v>2351.580974946385</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
         <v>335.4089181770414</v>
@@ -5676,7 +5676,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L19" t="n">
         <v>771.6978860337115</v>
@@ -5700,7 +5700,7 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
         <v>1938.403572105846</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1301.367519464212</v>
+        <v>1910.996899172716</v>
       </c>
       <c r="C20" t="n">
-        <v>1301.367519464212</v>
+        <v>1589.484015180378</v>
       </c>
       <c r="D20" t="n">
-        <v>990.5514538055352</v>
+        <v>1278.667949521701</v>
       </c>
       <c r="E20" t="n">
-        <v>990.5514538055352</v>
+        <v>940.3293298715299</v>
       </c>
       <c r="F20" t="n">
-        <v>627.0151819640009</v>
+        <v>576.7930580299957</v>
       </c>
       <c r="G20" t="n">
-        <v>259.3923647570707</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5788,16 +5788,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243047</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921006</v>
+        <v>2592.836805316503</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.207425607999</v>
+        <v>2592.836805316503</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.517726580261</v>
+        <v>2250.147106288765</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,16 +5834,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998334</v>
       </c>
       <c r="H22" t="n">
         <v>116.3881606657648</v>
@@ -5913,7 +5913,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L22" t="n">
         <v>771.6978860337113</v>
@@ -5955,7 +5955,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1690.224680302051</v>
+        <v>1707.656676566317</v>
       </c>
       <c r="C23" t="n">
-        <v>1368.711796309712</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D23" t="n">
-        <v>1057.895730651035</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E23" t="n">
-        <v>719.557111000864</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F23" t="n">
-        <v>356.0208391593297</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,13 +6001,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T23" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U23" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V23" t="n">
-        <v>2677.383608767878</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W23" t="n">
-        <v>2372.064586445837</v>
+        <v>2715.51270802311</v>
       </c>
       <c r="X23" t="n">
-        <v>2372.064586445837</v>
+        <v>2389.496582710104</v>
       </c>
       <c r="Y23" t="n">
-        <v>2029.374887418099</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
@@ -6068,28 +6068,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D25" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E25" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F25" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G25" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H25" t="n">
         <v>116.3881606657648</v>
@@ -6150,10 +6150,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K25" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L25" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M25" t="n">
         <v>1162.360316885667</v>
@@ -6168,13 +6168,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q25" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R25" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T25" t="n">
         <v>1938.403572105846</v>
@@ -6192,7 +6192,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1848.344750151466</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C26" t="n">
-        <v>1724.223529170365</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D26" t="n">
-        <v>1407.954729324146</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E26" t="n">
-        <v>1064.163375486433</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F26" t="n">
-        <v>695.1743694573568</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G26" t="n">
-        <v>322.0988180628847</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T26" t="n">
-        <v>3161.624972753923</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U26" t="n">
-        <v>3161.624972753923</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V26" t="n">
-        <v>2872.558984170884</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W26" t="n">
-        <v>2872.558984170884</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X26" t="n">
-        <v>2541.090124670336</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y26" t="n">
-        <v>2192.947691455056</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6329,28 +6329,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>797.6353891180869</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C28" t="n">
-        <v>670.6961049507115</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D28" t="n">
-        <v>562.5763642989073</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E28" t="n">
-        <v>456.6601694770457</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F28" t="n">
-        <v>351.7671207396668</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G28" t="n">
-        <v>226.0611828749173</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H28" t="n">
-        <v>121.8408948533066</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>152.7959093543158</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K28" t="n">
-        <v>397.9442527783891</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L28" t="n">
-        <v>755.6652117020822</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M28" t="n">
-        <v>1140.983417776828</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N28" t="n">
-        <v>1523.55295495789</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.0437143535</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P28" t="n">
-        <v>2137.812375262356</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q28" t="n">
-        <v>2256.583831890068</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R28" t="n">
-        <v>2256.583831890068</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.894846477426</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.125129807483</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U28" t="n">
-        <v>1680.019161693658</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V28" t="n">
-        <v>1467.331572248303</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W28" t="n">
-        <v>1302.07528770828</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X28" t="n">
-        <v>1116.082635570794</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y28" t="n">
-        <v>937.2869551877951</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1568.517402473458</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C29" t="n">
-        <v>1380.432175332653</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D29" t="n">
-        <v>1064.163375486433</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E29" t="n">
-        <v>1064.163375486433</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F29" t="n">
-        <v>695.1743694573571</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G29" t="n">
-        <v>322.0988180628849</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912087</v>
@@ -6469,7 +6469,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609169</v>
       </c>
       <c r="S29" t="n">
-        <v>3257.312051896796</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T29" t="n">
-        <v>3093.331203041549</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="U29" t="n">
-        <v>2881.797625075917</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="V29" t="n">
-        <v>2592.731636492877</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W29" t="n">
-        <v>2592.731636492877</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X29" t="n">
-        <v>2261.262776992329</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y29" t="n">
-        <v>1913.120343777048</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="30">
@@ -6563,7 +6563,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1740.951440972442</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C31" t="n">
-        <v>1614.012156805067</v>
+        <v>637.9796998254615</v>
       </c>
       <c r="D31" t="n">
-        <v>1505.892416153262</v>
+        <v>535.3126933611991</v>
       </c>
       <c r="E31" t="n">
-        <v>1399.9762213314</v>
+        <v>434.8492327268793</v>
       </c>
       <c r="F31" t="n">
-        <v>1295.083172594021</v>
+        <v>335.4089181770423</v>
       </c>
       <c r="G31" t="n">
-        <v>1295.083172594021</v>
+        <v>215.1557144998346</v>
       </c>
       <c r="H31" t="n">
-        <v>1190.86288457241</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I31" t="n">
-        <v>1135.534106151287</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>1221.817899073419</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K31" t="n">
-        <v>1466.966242497492</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L31" t="n">
-        <v>1824.687201421185</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M31" t="n">
-        <v>2210.005407495931</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N31" t="n">
-        <v>2592.574944676992</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O31" t="n">
-        <v>2933.065704072602</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P31" t="n">
-        <v>3206.834364981458</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609169</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R31" t="n">
-        <v>3277.772263127229</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S31" t="n">
-        <v>3128.083277714586</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T31" t="n">
-        <v>2948.313561044643</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U31" t="n">
-        <v>2701.207592930818</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V31" t="n">
-        <v>2492.811610839065</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W31" t="n">
-        <v>2245.391339562635</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X31" t="n">
-        <v>2059.39868742515</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y31" t="n">
-        <v>1880.603007042151</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1696.959858232655</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="C32" t="n">
-        <v>1696.959858232655</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D32" t="n">
-        <v>1386.143792573978</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E32" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168771</v>
       </c>
       <c r="F32" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G32" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T32" t="n">
-        <v>3104.236671416633</v>
+        <v>3132.206192978147</v>
       </c>
       <c r="U32" t="n">
-        <v>2898.155827638543</v>
+        <v>2926.125349200056</v>
       </c>
       <c r="V32" t="n">
-        <v>2898.155827638543</v>
+        <v>2642.512094804559</v>
       </c>
       <c r="W32" t="n">
-        <v>2592.836805316502</v>
+        <v>2337.193072482518</v>
       </c>
       <c r="X32" t="n">
-        <v>2266.820680003495</v>
+        <v>2011.176947169512</v>
       </c>
       <c r="Y32" t="n">
-        <v>2036.110065348704</v>
+        <v>1668.487248141774</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1785.734441306719</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C34" t="n">
-        <v>1664.247891326885</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D34" t="n">
-        <v>1561.580884862623</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E34" t="n">
-        <v>1461.117424228303</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F34" t="n">
-        <v>1361.677109678465</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G34" t="n">
-        <v>1241.423906001257</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H34" t="n">
-        <v>1142.656352167188</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I34" t="n">
-        <v>1092.780307933607</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1184.408325632949</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K34" t="n">
-        <v>1434.900893834232</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L34" t="n">
-        <v>1797.966077535135</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M34" t="n">
-        <v>2188.628508387091</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N34" t="n">
-        <v>2576.542270345362</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O34" t="n">
-        <v>2922.377254518182</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P34" t="n">
-        <v>3201.490140204248</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609169</v>
+        <v>2299.337630107744</v>
       </c>
       <c r="R34" t="n">
-        <v>3283.22499731477</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S34" t="n">
-        <v>3138.98874608967</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T34" t="n">
-        <v>2964.67176360727</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U34" t="n">
-        <v>2723.018529680987</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V34" t="n">
-        <v>2515.783674423173</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W34" t="n">
-        <v>2273.816137334286</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X34" t="n">
-        <v>2093.276219384342</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y34" t="n">
-        <v>1919.933273188885</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1696.959858232655</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C35" t="n">
         <v>1696.959858232655</v>
@@ -6937,10 +6937,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,13 +6949,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6973,16 +6973,16 @@
         <v>3056.683942306249</v>
       </c>
       <c r="V35" t="n">
-        <v>3010.134912011489</v>
+        <v>2773.070687910752</v>
       </c>
       <c r="W35" t="n">
-        <v>2704.815889689448</v>
+        <v>2467.751665588711</v>
       </c>
       <c r="X35" t="n">
-        <v>2378.799764376442</v>
+        <v>2467.751665588711</v>
       </c>
       <c r="Y35" t="n">
-        <v>2036.110065348704</v>
+        <v>2125.061966560972</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7040,28 +7040,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052951</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254616</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611992</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268794</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770424</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998347</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H37" t="n">
         <v>116.3881606657647</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M37" t="n">
         <v>1162.360316885667</v>
@@ -7128,19 +7128,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V37" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1743.508888527414</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C38" t="n">
-        <v>1421.996004535076</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D38" t="n">
         <v>1386.143792573978</v>
@@ -7168,10 +7168,10 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7195,31 +7195,31 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T38" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="U38" t="n">
-        <v>3056.683942306248</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="V38" t="n">
-        <v>3056.683942306248</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="W38" t="n">
-        <v>2751.364919984208</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X38" t="n">
-        <v>2425.348794671201</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y38" t="n">
-        <v>2082.659095643463</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7271,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254615</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611991</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268793</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770423</v>
       </c>
       <c r="G40" t="n">
         <v>215.1557144998336</v>
@@ -7329,13 +7329,13 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L40" t="n">
         <v>771.6978860337115</v>
@@ -7353,10 +7353,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S40" t="n">
         <v>2112.720554588247</v>
@@ -7365,19 +7365,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V40" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1554.131387616104</v>
+        <v>1363.1240116961</v>
       </c>
       <c r="C41" t="n">
-        <v>1554.131387616104</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D41" t="n">
-        <v>1554.131387616104</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E41" t="n">
-        <v>1173.795869205402</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>768.262698603336</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>358.6429826358744</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3220.767887323807</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T41" t="n">
-        <v>3020.242873895571</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U41" t="n">
-        <v>2772.165131356949</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V41" t="n">
-        <v>2446.55497820092</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W41" t="n">
-        <v>2099.239057118348</v>
+        <v>2513.328941997113</v>
       </c>
       <c r="X41" t="n">
-        <v>1938.817985404374</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y41" t="n">
-        <v>1554.131387616104</v>
+        <v>1749.723851760222</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
         <v>765.151745215813</v>
@@ -7508,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.168891088683</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C43" t="n">
-        <v>388.685442348318</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D43" t="n">
-        <v>350.4096891374031</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E43" t="n">
-        <v>207.9493297425519</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>116.9789736563287</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>326.3103813824149</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>648.2144046081207</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>997.7156749848796</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.468276467954</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.142100165577</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1887.093825376446</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1970.048346306171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1885.67062325124</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1699.437473265609</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1699.437473265609</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1699.437473265609</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1450.205719247263</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>1166.241283397845</v>
+        <v>1407.451491190403</v>
       </c>
       <c r="X43" t="n">
-        <v>943.7044666873692</v>
+        <v>1179.461940292386</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.3646217313809</v>
+        <v>958.6693611488557</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1533.930366881736</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="C44" t="n">
-        <v>1170.420584128866</v>
+        <v>1316.413029176104</v>
       </c>
       <c r="D44" t="n">
-        <v>1170.420584128866</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E44" t="n">
-        <v>1170.420584128866</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>764.8874135268011</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>355.2676975593396</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0562810051726</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3220.767887323807</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3220.767887323807</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U44" t="n">
-        <v>2972.690144785186</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V44" t="n">
-        <v>2647.079991629158</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W44" t="n">
-        <v>2299.764070546586</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2299.764070546586</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y44" t="n">
-        <v>1915.077472758316</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,31 +7745,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
         <v>1109.759191501176</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>228.4006078016376</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>228.4006078016376</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D46" t="n">
-        <v>228.4006078016376</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>85.94024840678659</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>85.94024840678659</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>116.9789736563289</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>326.3103813824153</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>648.2144046081214</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>997.7156749848805</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
-        <v>1344.468276467955</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1649.142100165579</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1887.093825376448</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1970.048346306172</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1885.670623251242</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1699.437473265611</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1483.123592022679</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1199.473459335864</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V46" t="n">
-        <v>950.2417053175195</v>
+        <v>973.6475994385983</v>
       </c>
       <c r="W46" t="n">
-        <v>666.2772694681009</v>
+        <v>684.2304294016377</v>
       </c>
       <c r="X46" t="n">
-        <v>443.7404527576257</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y46" t="n">
-        <v>228.4006078016376</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
   </sheetData>
@@ -8300,7 +8300,7 @@
         <v>100.9222782029847</v>
       </c>
       <c r="L6" t="n">
-        <v>88.91201201533923</v>
+        <v>88.91201201533924</v>
       </c>
       <c r="M6" t="n">
         <v>84.20373222002493</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>99.48145777055689</v>
+        <v>100.6266883018182</v>
       </c>
       <c r="K8" t="n">
-        <v>97.84588875917375</v>
+        <v>99.56229245514494</v>
       </c>
       <c r="L8" t="n">
-        <v>84.11197020387417</v>
+        <v>86.24132076352333</v>
       </c>
       <c r="M8" t="n">
-        <v>61.60144274179041</v>
+        <v>63.97075552132875</v>
       </c>
       <c r="N8" t="n">
-        <v>57.93780598380653</v>
+        <v>60.34545672115806</v>
       </c>
       <c r="O8" t="n">
-        <v>68.17898812376723</v>
+        <v>70.45246444211134</v>
       </c>
       <c r="P8" t="n">
-        <v>93.03868480412325</v>
+        <v>94.97904424309638</v>
       </c>
       <c r="Q8" t="n">
-        <v>118.5275175934325</v>
+        <v>119.9846467238497</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>78.25840095111542</v>
+        <v>78.9404924099201</v>
       </c>
       <c r="K9" t="n">
-        <v>54.81180464125231</v>
+        <v>55.97760758627862</v>
       </c>
       <c r="L9" t="n">
-        <v>26.91078992571857</v>
+        <v>28.47835585432568</v>
       </c>
       <c r="M9" t="n">
-        <v>11.85123045015553</v>
+        <v>13.68050595153181</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.25850444205319</v>
+        <v>21.97622485270162</v>
       </c>
       <c r="P9" t="n">
-        <v>35.78758557673351</v>
+        <v>37.1662076431853</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.34648393118171</v>
+        <v>75.26805627309022</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>78.93011097936659</v>
+        <v>79.63331870707268</v>
       </c>
       <c r="L10" t="n">
-        <v>70.7954909006143</v>
+        <v>71.69535468613114</v>
       </c>
       <c r="M10" t="n">
-        <v>71.35272393060009</v>
+        <v>72.30150412221481</v>
       </c>
       <c r="N10" t="n">
-        <v>61.71922078221716</v>
+        <v>62.64544110150328</v>
       </c>
       <c r="O10" t="n">
-        <v>77.52596157169469</v>
+        <v>78.38147594965824</v>
       </c>
       <c r="P10" t="n">
-        <v>85.59136944575877</v>
+        <v>86.32340979078239</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.87542442342333</v>
+        <v>14.87542442342334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.34172840741765</v>
+        <v>14.35522174936686</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>146.0132260697444</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>126.5428377195574</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>127.3463093107765</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>15.07802795638585</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.981554650710763</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>35.71613504204271</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>106.4010846217547</v>
       </c>
       <c r="H20" t="n">
-        <v>56.68118192708951</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>77.33295353498602</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>121.4491436795413</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>200.8159532267914</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524967</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>209.4182421859758</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>307.6640389444868</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>83.92851037866799</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712117</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>81.34234686904162</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>137.4915871286843</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>101.3386739031095</v>
       </c>
       <c r="W29" t="n">
-        <v>307.664038944487</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>124.4488784861022</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4.248691280066112</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.68982634589713</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>110.8592935292172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>230.235372952269</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>234.6935818597303</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>272.2142151606034</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>68.19417982029481</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.3356348178141</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>359.8746849253411</v>
+        <v>194.0326512422155</v>
       </c>
       <c r="D41" t="n">
-        <v>349.2848347750165</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.17872292725951</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5160328359686</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>105.3242704937402</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6276014133618</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>139.3568080686544</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>90.95421356417168</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>214.1507424305028</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>280.8136313599464</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>277.6391594892649</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>349.2848347750163</v>
+        <v>229.6866737866869</v>
       </c>
       <c r="E44" t="n">
-        <v>376.5321632265951</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>39.52025515302847</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>198.5197632939535</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>364.3328938328024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174.4337733362707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>161.8486142529612</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>143.2172661725457</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>140.0228411772646</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>141.3937507585044</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>139.3568080686541</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>90.95421356417145</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>92.48912964370444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760767.6695862758</v>
+        <v>761638.3542348361</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681163.5129538588</v>
+        <v>681163.5129538589</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673197.0724935601</v>
+        <v>681163.5129538589</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673197.0724935598</v>
+        <v>681163.5129538588</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681163.5129538588</v>
+        <v>681163.5129538589</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>617286.2280664571</v>
+        <v>608943.8024993575</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>617286.2280664573</v>
+        <v>608943.8024993575</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774084</v>
+        <v>716866.7963774083</v>
       </c>
       <c r="C2" t="n">
-        <v>716896.5587342462</v>
+        <v>716896.5587342463</v>
       </c>
       <c r="D2" t="n">
-        <v>716933.7306617614</v>
+        <v>716932.7908504943</v>
       </c>
       <c r="E2" t="n">
-        <v>668964.6336536133</v>
+        <v>668964.6336536115</v>
       </c>
       <c r="F2" t="n">
-        <v>668964.6336536114</v>
+        <v>668964.6336536115</v>
       </c>
       <c r="G2" t="n">
+        <v>668964.6336536118</v>
+      </c>
+      <c r="H2" t="n">
         <v>668964.6336536129</v>
-      </c>
-      <c r="H2" t="n">
-        <v>668964.6336536116</v>
       </c>
       <c r="I2" t="n">
         <v>668964.633653613</v>
       </c>
       <c r="J2" t="n">
-        <v>660998.1931933139</v>
+        <v>668964.6336536126</v>
       </c>
       <c r="K2" t="n">
-        <v>660998.1931933134</v>
+        <v>668964.6336536113</v>
       </c>
       <c r="L2" t="n">
+        <v>668964.6336536127</v>
+      </c>
+      <c r="M2" t="n">
+        <v>668964.6336536129</v>
+      </c>
+      <c r="N2" t="n">
         <v>668964.6336536113</v>
       </c>
-      <c r="M2" t="n">
-        <v>668964.6336536114</v>
-      </c>
-      <c r="N2" t="n">
-        <v>668964.6336536126</v>
-      </c>
       <c r="O2" t="n">
-        <v>605087.3487662115</v>
+        <v>596744.9231991109</v>
       </c>
       <c r="P2" t="n">
-        <v>605087.3487662115</v>
+        <v>596744.923199111</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>96791.64878979558</v>
       </c>
       <c r="D3" t="n">
-        <v>113694.8540380568</v>
+        <v>110820.3271587253</v>
       </c>
       <c r="E3" t="n">
-        <v>969293.8605910769</v>
+        <v>971990.4577023287</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>33261.54381834096</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4318.565476533314</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>419268.2934420824</v>
       </c>
       <c r="D4" t="n">
-        <v>378149.0225331384</v>
+        <v>379150.1073850346</v>
       </c>
       <c r="E4" t="n">
+        <v>60045.38930863545</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60045.38930863545</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60045.38930863545</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60045.38930863545</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60045.38930863546</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60045.38930863552</v>
+      </c>
+      <c r="K4" t="n">
         <v>60045.38930863549</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>60045.38930863551</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60045.38930863548</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60045.38930863549</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60045.38930863551</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54835.51151607389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54835.5115160737</v>
-      </c>
-      <c r="L4" t="n">
-        <v>60045.38930863554</v>
       </c>
       <c r="M4" t="n">
         <v>60045.38930863554</v>
       </c>
       <c r="N4" t="n">
-        <v>60045.38930863552</v>
+        <v>60045.38930863554</v>
       </c>
       <c r="O4" t="n">
-        <v>18275.25777098987</v>
+        <v>12820.12292715303</v>
       </c>
       <c r="P4" t="n">
-        <v>18275.25777099005</v>
+        <v>12820.12292715304</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>35944.81206807974</v>
       </c>
       <c r="D5" t="n">
-        <v>38838.91213887451</v>
+        <v>38765.74111881946</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178175</v>
@@ -26493,25 +26493,25 @@
         <v>78255.49332178175</v>
       </c>
       <c r="J5" t="n">
-        <v>77801.6714704734</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="K5" t="n">
-        <v>77801.67147047339</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="L5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="M5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="N5" t="n">
         <v>78255.49332178173</v>
       </c>
-      <c r="M5" t="n">
-        <v>78255.49332178176</v>
-      </c>
-      <c r="N5" t="n">
-        <v>78255.49332178175</v>
-      </c>
       <c r="O5" t="n">
-        <v>74760.16241270161</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74760.16241270164</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>230839.2058284433</v>
+        <v>230795.070049762</v>
       </c>
       <c r="C6" t="n">
-        <v>164891.8044342885</v>
+        <v>164848.51900866</v>
       </c>
       <c r="D6" t="n">
-        <v>186250.9419516916</v>
+        <v>188154.3649656078</v>
       </c>
       <c r="E6" t="n">
-        <v>-438630.1095678809</v>
+        <v>-442739.4756784954</v>
       </c>
       <c r="F6" t="n">
-        <v>530663.7510231944</v>
+        <v>529250.9820238333</v>
       </c>
       <c r="G6" t="n">
-        <v>530663.7510231957</v>
+        <v>529250.9820238336</v>
       </c>
       <c r="H6" t="n">
-        <v>530663.7510231944</v>
+        <v>529250.9820238347</v>
       </c>
       <c r="I6" t="n">
-        <v>530663.7510231958</v>
+        <v>529250.9820238349</v>
       </c>
       <c r="J6" t="n">
-        <v>495099.4663884257</v>
+        <v>491670.8727289602</v>
       </c>
       <c r="K6" t="n">
-        <v>528361.0102067665</v>
+        <v>529250.9820238331</v>
       </c>
       <c r="L6" t="n">
-        <v>526345.1855466608</v>
+        <v>529250.9820238345</v>
       </c>
       <c r="M6" t="n">
-        <v>323475.1827311211</v>
+        <v>322062.4137317616</v>
       </c>
       <c r="N6" t="n">
-        <v>530663.7510231953</v>
+        <v>529250.9820238331</v>
       </c>
       <c r="O6" t="n">
-        <v>512051.92858252</v>
+        <v>506142.2704125035</v>
       </c>
       <c r="P6" t="n">
-        <v>512051.9285825199</v>
+        <v>506142.2704125036</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.9751366185926</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41.57692977292619</v>
-      </c>
       <c r="K2" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O2" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>106.2941315632906</v>
       </c>
       <c r="D3" t="n">
-        <v>239.0510155447024</v>
+        <v>235.6945467348377</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26804,7 +26804,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022923</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.9751366185926</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41.57692977292621</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>106.2941315632906</v>
       </c>
       <c r="D3" t="n">
-        <v>132.7568839814118</v>
+        <v>129.400415171547</v>
       </c>
       <c r="E3" t="n">
-        <v>850.7256850485957</v>
+        <v>854.0821538584606</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.9751366185926</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41.57692977292621</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>85.96255371481348</v>
       </c>
       <c r="S6" t="n">
-        <v>167.4364197154365</v>
+        <v>167.4364197154366</v>
       </c>
       <c r="T6" t="n">
         <v>199.2431786296644</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.6328675913564</v>
+        <v>329.7710562795937</v>
       </c>
       <c r="I8" t="n">
-        <v>173.426585945131</v>
+        <v>173.9467880106277</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.50212957849675</v>
+        <v>90.34973071971351</v>
       </c>
       <c r="S8" t="n">
-        <v>187.1210745441352</v>
+        <v>187.4285540738027</v>
       </c>
       <c r="T8" t="n">
-        <v>218.8890321950985</v>
+        <v>218.9480992994811</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2687721792191</v>
+        <v>251.269851646575</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8293319599635</v>
+        <v>136.8365515343848</v>
       </c>
       <c r="H9" t="n">
-        <v>107.2694976682942</v>
+        <v>107.3392235580992</v>
       </c>
       <c r="I9" t="n">
-        <v>71.69332651154797</v>
+        <v>71.94189519227851</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.23324758612607</v>
+        <v>68.68149449624347</v>
       </c>
       <c r="S9" t="n">
-        <v>162.132406473349</v>
+        <v>162.2665069017431</v>
       </c>
       <c r="T9" t="n">
-        <v>198.0922014940142</v>
+        <v>198.1213014452998</v>
       </c>
       <c r="U9" t="n">
-        <v>225.907554107077</v>
+        <v>225.9080290790784</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5599037566568</v>
+        <v>167.5659564053304</v>
       </c>
       <c r="H10" t="n">
-        <v>158.3945185205098</v>
+        <v>158.4483320696253</v>
       </c>
       <c r="I10" t="n">
-        <v>142.4868559203423</v>
+        <v>142.6688755731789</v>
       </c>
       <c r="J10" t="n">
-        <v>62.88213506927687</v>
+        <v>63.3100573304952</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.06533990444432</v>
+        <v>50.57216669473389</v>
       </c>
       <c r="R10" t="n">
-        <v>157.9106647725121</v>
+        <v>158.1828138665055</v>
       </c>
       <c r="S10" t="n">
-        <v>216.5041259582969</v>
+        <v>216.6096071174528</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1037209478551</v>
+        <v>226.1295822649147</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2955161418471</v>
+        <v>286.2958462863202</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292619</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292619</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.57692977292599</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859097</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.398206845666422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.398206845666643</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31290,7 +31290,7 @@
         <v>36.2676645176677</v>
       </c>
       <c r="K5" t="n">
-        <v>54.35582768982486</v>
+        <v>54.35582768982485</v>
       </c>
       <c r="L5" t="n">
         <v>67.43321072029745</v>
@@ -31302,7 +31302,7 @@
         <v>76.24654323685169</v>
       </c>
       <c r="O5" t="n">
-        <v>71.99744868114327</v>
+        <v>71.99744868114325</v>
       </c>
       <c r="P5" t="n">
         <v>61.44815672951015</v>
@@ -31363,7 +31363,7 @@
         <v>2.208110167003453</v>
       </c>
       <c r="I6" t="n">
-        <v>7.871782384639922</v>
+        <v>7.871782384639921</v>
       </c>
       <c r="J6" t="n">
         <v>21.60077252834759</v>
@@ -31372,7 +31372,7 @@
         <v>36.91916077137427</v>
       </c>
       <c r="L6" t="n">
-        <v>49.64236776453495</v>
+        <v>49.64236776453494</v>
       </c>
       <c r="M6" t="n">
         <v>57.93030170199339</v>
@@ -31381,22 +31381,22 @@
         <v>59.46354441105257</v>
       </c>
       <c r="O6" t="n">
-        <v>54.39752598975309</v>
+        <v>54.39752598975308</v>
       </c>
       <c r="P6" t="n">
         <v>43.65881037738254</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.18475853790577</v>
+        <v>29.18475853790576</v>
       </c>
       <c r="R6" t="n">
         <v>14.19528043782965</v>
       </c>
       <c r="S6" t="n">
-        <v>4.24675138840128</v>
+        <v>4.246751388401279</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9215500651572083</v>
+        <v>0.9215500651572082</v>
       </c>
       <c r="U6" t="n">
         <v>0.0150416223910317</v>
@@ -31442,10 +31442,10 @@
         <v>1.70419115850653</v>
       </c>
       <c r="I7" t="n">
-        <v>5.764278478874845</v>
+        <v>5.764278478874846</v>
       </c>
       <c r="J7" t="n">
-        <v>13.55163051094609</v>
+        <v>13.55163051094608</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -31463,7 +31463,7 @@
         <v>27.09280586141055</v>
       </c>
       <c r="P7" t="n">
-        <v>23.18257584127899</v>
+        <v>23.18257584127898</v>
       </c>
       <c r="Q7" t="n">
         <v>16.05041386605689</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9610091077173959</v>
+        <v>0.947515765768191</v>
       </c>
       <c r="H8" t="n">
-        <v>9.841934524410783</v>
+        <v>9.703745836173487</v>
       </c>
       <c r="I8" t="n">
-        <v>37.04930362527494</v>
+        <v>36.52910155977822</v>
       </c>
       <c r="J8" t="n">
-        <v>81.5644467561294</v>
+        <v>80.41921622486807</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2439622858068</v>
+        <v>120.5275585898356</v>
       </c>
       <c r="L8" t="n">
-        <v>151.6544447661131</v>
+        <v>149.5250942064639</v>
       </c>
       <c r="M8" t="n">
-        <v>168.7447904854823</v>
+        <v>166.375477705944</v>
       </c>
       <c r="N8" t="n">
-        <v>171.4752576127844</v>
+        <v>169.0676068754329</v>
       </c>
       <c r="O8" t="n">
-        <v>161.9192232979195</v>
+        <v>159.6457469795754</v>
       </c>
       <c r="P8" t="n">
-        <v>138.1943109511463</v>
+        <v>136.2539515121732</v>
       </c>
       <c r="Q8" t="n">
-        <v>103.778172281017</v>
+        <v>102.3210431505998</v>
       </c>
       <c r="R8" t="n">
-        <v>60.36698836265293</v>
+        <v>59.51938722143618</v>
       </c>
       <c r="S8" t="n">
-        <v>21.89899504211018</v>
+        <v>21.59151551244267</v>
       </c>
       <c r="T8" t="n">
-        <v>4.206817369032903</v>
+        <v>4.147750264650258</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07688072861739166</v>
+        <v>0.07580126126145526</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5141852032470957</v>
+        <v>0.5069656288258773</v>
       </c>
       <c r="H9" t="n">
-        <v>4.965946568202215</v>
+        <v>4.896220678397289</v>
       </c>
       <c r="I9" t="n">
-        <v>17.70330633986712</v>
+        <v>17.45473765913657</v>
       </c>
       <c r="J9" t="n">
-        <v>48.57922571555128</v>
+        <v>47.8971342567466</v>
       </c>
       <c r="K9" t="n">
-        <v>83.02963433310669</v>
+        <v>81.86383138808037</v>
       </c>
       <c r="L9" t="n">
-        <v>111.6435898541556</v>
+        <v>110.0760239255485</v>
       </c>
       <c r="M9" t="n">
-        <v>130.2828034718628</v>
+        <v>128.4535279704865</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>122.3377400023912</v>
+        <v>120.6200195917428</v>
       </c>
       <c r="P9" t="n">
-        <v>98.18682183759674</v>
+        <v>96.80819977114494</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.63529015483981</v>
+        <v>64.71371781293129</v>
       </c>
       <c r="R9" t="n">
-        <v>31.92458656651706</v>
+        <v>31.47633965639966</v>
       </c>
       <c r="S9" t="n">
-        <v>9.550764630488812</v>
+        <v>9.416664202094688</v>
       </c>
       <c r="T9" t="n">
-        <v>2.072527200807372</v>
+        <v>2.043427249521847</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03382797389783526</v>
+        <v>0.0333530018964393</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4310756018019223</v>
+        <v>0.4250229531283958</v>
       </c>
       <c r="H10" t="n">
-        <v>3.832653986929822</v>
+        <v>3.778840437814285</v>
       </c>
       <c r="I10" t="n">
-        <v>12.963619006916</v>
+        <v>12.7815993540794</v>
       </c>
       <c r="J10" t="n">
-        <v>30.47704504739591</v>
+        <v>30.04912278617758</v>
       </c>
       <c r="K10" t="n">
-        <v>50.08314719116878</v>
+        <v>49.3799394634627</v>
       </c>
       <c r="L10" t="n">
-        <v>64.08918538062399</v>
+        <v>63.18932159510714</v>
       </c>
       <c r="M10" t="n">
-        <v>67.57306001700496</v>
+        <v>66.62427982539025</v>
       </c>
       <c r="N10" t="n">
-        <v>65.96632368301603</v>
+        <v>65.04010336372991</v>
       </c>
       <c r="O10" t="n">
-        <v>60.9305768801481</v>
+        <v>60.07506250218454</v>
       </c>
       <c r="P10" t="n">
-        <v>52.13663460338884</v>
+        <v>51.40459425836523</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.09670334725006</v>
+        <v>35.58987655696049</v>
       </c>
       <c r="R10" t="n">
-        <v>19.38272660465734</v>
+        <v>19.11057751066404</v>
       </c>
       <c r="S10" t="n">
-        <v>7.512472078675317</v>
+        <v>7.406990919519403</v>
       </c>
       <c r="T10" t="n">
-        <v>1.841868480426395</v>
+        <v>1.816007163366781</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02351321464374125</v>
+        <v>0.02318307017063979</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33912,10 +33912,10 @@
         <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781699</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
@@ -33988,7 +33988,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35582,13 +35582,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,13 +35816,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36290,13 +36290,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412326</v>
       </c>
       <c r="P25" t="n">
         <v>281.9322077637029</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554011</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599237</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172457</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>361.3343019431243</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>389.21030916641</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>386.4338759404662</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955659</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180366</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108198</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.15534638599217</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>389.2103091664097</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37241,13 +37241,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412307</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37484,7 +37484,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,10 +37560,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037204</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
@@ -37636,7 +37636,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37721,7 +37721,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923314</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.97662345873265</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>211.445866389986</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>325.1555790158645</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>353.0315862391503</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>350.2551530132065</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>307.7513370683062</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>240.3552779907769</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.79244538356008</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.97662345873286</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>211.4458663899862</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>325.1555790158648</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>353.0315862391505</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>350.2551530132067</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>307.7513370683064</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>240.3552779907771</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.79244538356031</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
